--- a/res/page/系统管理/UserPage.xlsx
+++ b/res/page/系统管理/UserPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950"/>
+    <workbookView windowWidth="21600" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>别名</t>
   </si>
@@ -27,19 +27,19 @@
     <t>定位值</t>
   </si>
   <si>
-    <t>系统管理</t>
+    <t>账号管理</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>//div[@id='menu_box']//a[contains(text(), "系统管理")]</t>
+    <t>//nav[@class='menu-box']//a[contains(text(), "账号管理")]</t>
   </si>
   <si>
     <t>用户管理</t>
   </si>
   <si>
-    <t>//li/a[@id='2100']</t>
+    <t>//ul[@role='menubar']//span[contains(text(),'用户管理')]</t>
   </si>
   <si>
     <t>新增</t>
@@ -48,70 +48,106 @@
     <t>//*[@id="app"]//a[contains(text(), "新增")]</t>
   </si>
   <si>
+    <t>创建用户</t>
+  </si>
+  <si>
+    <t>//div[@role='dialog']//span[contains(text(),'创建用户')]</t>
+  </si>
+  <si>
+    <t>登录账号</t>
+  </si>
+  <si>
+    <t>//div[@role='dialog']//label[text()='登录账号']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>登录密码</t>
+  </si>
+  <si>
+    <t>//div[@role='dialog']//label[text()='登录密码']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>确认密码</t>
+  </si>
+  <si>
+    <t>//div[@role='dialog']//label[text()='确认密码']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
     <t>用户名称</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'用户名称')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>用户密码</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'用户密码')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>确认密码</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'确认密码')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>用户昵称</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'用户昵称')]/following-sibling::*[1]//input</t>
+    <t>//div[@role='dialog']//label[text()='用户名称']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>设置角色列</t>
+  </si>
+  <si>
+    <t>//div[@role='dialog']//span[contains(text(),'设置角色')]</t>
+  </si>
+  <si>
+    <t>角色列表</t>
+  </si>
+  <si>
+    <t>//div[@class='setup-role-box']/div[@role='group']</t>
+  </si>
+  <si>
+    <t>绑定分组</t>
+  </si>
+  <si>
+    <t>//div[@role='dialog']//span[contains(text(),'绑定分组')]</t>
+  </si>
+  <si>
+    <t>停车场列表</t>
+  </si>
+  <si>
+    <t>//div[@class='bind-group-box']/div[@role='group']</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>//span[text()='完成']</t>
   </si>
   <si>
     <t>手机号码</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'手机号码')]/following-sibling::*[1]//input</t>
+    <t>//label[contains(text(),'手机号码')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>电子邮箱</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'电子邮箱')]/following-sibling::*[1]//input</t>
+    <t>//label[contains(text(),'电子邮箱')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>地址</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'地址')]/following-sibling::*[1]//textarea</t>
+    <t>//label[contains(text(),'地址')]/following-sibling::*[1]//textarea</t>
   </si>
   <si>
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//button[contains(text(),'确认')]</t>
   </si>
   <si>
     <t>设置角色</t>
   </si>
   <si>
-    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//span[contains(text(),'设置角色')]</t>
+    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//button[@title='设置角色']</t>
   </si>
   <si>
     <t>设置车场分组</t>
   </si>
   <si>
-    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//span[contains(text(),'设置车场分组')]</t>
+    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//button[@title='设置车场分组']</t>
   </si>
   <si>
     <t>重置密码</t>
   </si>
   <si>
-    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//span[contains(text(),'重置密码')]</t>
+    <t>//*[@id="authzUserTable"]//div[@class='el-table__fixed-right']//button[@title='重置密码']</t>
   </si>
   <si>
     <t>修改用户</t>
@@ -153,13 +189,25 @@
     <t>搜索按钮</t>
   </si>
   <si>
-    <t>//div[@class='form-group search-group']</t>
+    <t>//i[@class='ion-ios-search-strong']</t>
   </si>
   <si>
     <t>操作成功-提示</t>
   </si>
   <si>
     <t>//div[@class='toast-wrapper']</t>
+  </si>
+  <si>
+    <t>修改密码-用户密码</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='用户密码']/following-sibling::*[1]//input</t>
+  </si>
+  <si>
+    <t>修改密码-确认密码</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-container']//label[text()='确认密码']/following-sibling::*[1]//input</t>
   </si>
 </sst>
 </file>
@@ -167,8 +215,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -189,15 +237,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +266,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -234,31 +289,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,9 +311,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +333,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -296,35 +357,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -347,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,60 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -625,7 +619,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,8 +642,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,145 +709,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -882,7 +930,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1161,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1425,6 +1473,94 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="33" customHeight="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="33" customHeight="1" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="33" customHeight="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="33" customHeight="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="33" customHeight="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" ht="29" customHeight="1" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="29" customHeight="1" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" ht="29" customHeight="1" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
